--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316105.7534035778</v>
+        <v>313584.2488130593</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>144.1194916234576</v>
       </c>
       <c r="G2" t="n">
-        <v>357.770084462504</v>
+        <v>367.3215048278416</v>
       </c>
       <c r="H2" t="n">
-        <v>283.3383923031524</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>70.84780057981283</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>143.8832542517492</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.7882899046855</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>203.6127969336166</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>145.192013090778</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20.86020867990545</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>128.6259131879047</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9801808572817</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>55.46841004730849</v>
       </c>
       <c r="H10" t="n">
-        <v>26.34654796018441</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>128.3548363691473</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>281.6778446725259</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.06830131405496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182154</v>
+        <v>137.7610225486951</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>53.07327741456108</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.069540131684027</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>81.13054509253637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.665762779849952</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>107.0531836110628</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>22.44547853568549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>19.86507844888347</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U40" t="n">
-        <v>201.9389347702759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>40.57972681915321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.153177427444</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.190660487032</v>
+        <v>1378.281454059634</v>
       </c>
       <c r="D2" t="n">
-        <v>1176.190660487032</v>
+        <v>1020.015755452883</v>
       </c>
       <c r="E2" t="n">
-        <v>1176.190660487032</v>
+        <v>634.2275028546392</v>
       </c>
       <c r="F2" t="n">
-        <v>765.2047556974244</v>
+        <v>488.6522587905406</v>
       </c>
       <c r="G2" t="n">
-        <v>403.8208319979253</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.153177427444</v>
+        <v>1747.243971000046</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,19 +4410,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.6653681677136</v>
+        <v>937.3909343092793</v>
       </c>
       <c r="C4" t="n">
-        <v>228.6653681677136</v>
+        <v>768.4547513813724</v>
       </c>
       <c r="D4" t="n">
-        <v>228.6653681677136</v>
+        <v>618.3381119690366</v>
       </c>
       <c r="E4" t="n">
-        <v>228.6653681677136</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="F4" t="n">
-        <v>228.6653681677136</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>302.4385536949221</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>638.3033838959707</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>410.3138329979533</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.3138329979533</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.46096678957</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1251.46096678957</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.46096678957</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>745.9401786091673</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>334.9542738195598</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>323.2899275842527</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.46096678957</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.834961214797</v>
+        <v>937.6897668500782</v>
       </c>
       <c r="C7" t="n">
-        <v>347.89877828689</v>
+        <v>768.7535839221713</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>618.6369445098355</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168175</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X7" t="n">
-        <v>737.6275403583271</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.834961214797</v>
+        <v>1119.338231680318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760224</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.761334819812</v>
+        <v>1192.938255729501</v>
       </c>
       <c r="D8" t="n">
-        <v>1022.495636213062</v>
+        <v>834.6725571227503</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>834.6725571227503</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724.5668517729318</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="C10" t="n">
-        <v>555.630668845025</v>
+        <v>415.6479477297194</v>
       </c>
       <c r="D10" t="n">
-        <v>555.630668845025</v>
+        <v>415.6479477297194</v>
       </c>
       <c r="E10" t="n">
-        <v>407.7175752626318</v>
+        <v>415.6479477297194</v>
       </c>
       <c r="F10" t="n">
-        <v>260.8276277647215</v>
+        <v>268.758000231809</v>
       </c>
       <c r="G10" t="n">
-        <v>93.12479113944042</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.007895746702</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.2153166031716</v>
+        <v>584.5841306576262</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935567</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>835.5837926935567</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>685.4671532812209</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>537.5540596988278</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>390.6641122009174</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>223.4680129157974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602305</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565344</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667327</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,7 +5282,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.983708831312</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765619</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377121</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2442.250191883442</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2259.395357538347</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,13 +7160,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,37 +7175,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.6442739835331</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7324,58 +7324,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1840.528062267928</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1585.843574062041</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1296.426404025081</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1068.436853127063</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>847.6442739835331</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2405.973460530611</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2186.371995553553</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1897.296768897751</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1642.612280691864</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1353.195110654903</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
-        <v>30.3692565058945</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.628993923005492e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.22619794511239</v>
       </c>
       <c r="H2" t="n">
-        <v>17.68016025925292</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.45879946499136</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.216875867721144e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>11.93987647707661</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016454</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>30.48882721876581</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.506629716718237</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.7636788678823</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10.85445046951898</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>114.1735436840667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.5151132204108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>65.30341755403281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>61.70948393027174</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>60.19363748756507</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>144.8013425629424</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>125.5559695740478</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U40" t="n">
-        <v>84.24553961896819</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>140.4465591824914</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>986083.5160798284</v>
+        <v>986083.5160798281</v>
       </c>
     </row>
     <row r="3">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1057219.851142169</v>
+        <v>1057219.851142168</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="F2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="G2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92967.25326431799</v>
+        <v>92967.25326431791</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
@@ -26433,7 +26433,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26442,22 +26442,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744224</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-964738.8227781791</v>
+        <v>-964925.2161667179</v>
       </c>
       <c r="C6" t="n">
-        <v>141008.8870220995</v>
+        <v>141008.8870220994</v>
       </c>
       <c r="D6" t="n">
-        <v>-19006.57572589917</v>
+        <v>-19006.57572589931</v>
       </c>
       <c r="E6" t="n">
-        <v>-72046.27816250437</v>
+        <v>-72081.0160879391</v>
       </c>
       <c r="F6" t="n">
-        <v>253366.1836448516</v>
+        <v>253331.4457194156</v>
       </c>
       <c r="G6" t="n">
-        <v>253366.1836448512</v>
+        <v>253331.4457194154</v>
       </c>
       <c r="H6" t="n">
-        <v>253366.1836448512</v>
+        <v>253331.4457194154</v>
       </c>
       <c r="I6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194155</v>
       </c>
       <c r="J6" t="n">
-        <v>85761.00583486875</v>
+        <v>85726.26790943294</v>
       </c>
       <c r="K6" t="n">
-        <v>253366.1836448512</v>
+        <v>253331.4457194158</v>
       </c>
       <c r="L6" t="n">
-        <v>205072.2136366604</v>
+        <v>205037.4757112247</v>
       </c>
       <c r="M6" t="n">
-        <v>168311.1557093395</v>
+        <v>168276.4177839037</v>
       </c>
       <c r="N6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194155</v>
       </c>
       <c r="O6" t="n">
-        <v>253366.1836448513</v>
+        <v>253331.4457194157</v>
       </c>
       <c r="P6" t="n">
-        <v>253366.1836448515</v>
+        <v>253331.4457194156</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>262.7565541182539</v>
       </c>
       <c r="G2" t="n">
-        <v>53.77761831044995</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>3.368254903379665</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>12.14208016757624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>97.40575562878877</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.241949555791194</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>204.8494467091317</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>253.3044568843571</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.89586488442973</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>110.5573982117197</v>
       </c>
       <c r="H10" t="n">
-        <v>118.4084669541364</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321067</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>206.1632388819608</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,34 +34208,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>216.8572963387062</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>328.0496171437446</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876622</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>79.32561221529411</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>90.01966967203957</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
